--- a/fsdata/삼성생명.xlsx
+++ b/fsdata/삼성생명.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project_A\fsdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fintech\Bit_Project1\fsdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285009E3-6009-4D12-ACF9-B313F9B825BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC5D5C8-EE2F-4B4A-AE87-EE042160B219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11655" yWindow="1380" windowWidth="16710" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_bs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="442">
   <si>
     <t>Statement of financial position(Unit: KWR)</t>
   </si>
@@ -1338,6 +1338,26 @@
   </si>
   <si>
     <t>영업수익</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200401-20110331</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190401-20100331</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180401-20090331</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170401-20090331</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160401-20090331</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1749,7 +1769,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5224,33 +5246,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="M105" sqref="M105"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="39.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>437</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>15</v>
@@ -5265,7 +5297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -5282,7 +5314,7 @@
         <v>14697681000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -5299,7 +5331,7 @@
         <v>14152390000000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -5316,7 +5348,7 @@
         <v>545291000000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -5333,7 +5365,7 @@
         <v>260625000000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -5350,7 +5382,7 @@
         <v>20722000000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -5367,7 +5399,7 @@
         <v>192434000000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -5384,7 +5416,7 @@
         <v>47469000000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -5401,7 +5433,7 @@
         <v>4824225000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5418,7 +5450,7 @@
         <v>230668000000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5435,7 +5467,7 @@
         <v>14068000000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5452,7 +5484,7 @@
         <v>2422871000000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -5469,7 +5501,7 @@
         <v>182394000000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -6764,6 +6796,18 @@
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>95</v>
+      </c>
+      <c r="B98" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98">
+        <v>1921330000000</v>
+      </c>
+      <c r="D98">
+        <v>905721000000</v>
+      </c>
+      <c r="E98">
+        <v>113990000000</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -8254,12 +8298,13 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="50.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
